--- a/data/greenhouse.xlsx
+++ b/data/greenhouse.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\JE1111\Rcode\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A23D24-F499-41FF-A835-0E3015686621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578AC891-C5F7-4E91-9E0B-322DE91768FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="greenhouse_PGR" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>replicate</t>
-  </si>
-  <si>
-    <t>height_2</t>
-  </si>
-  <si>
-    <t>height_1</t>
   </si>
   <si>
     <t>PGR</t>
@@ -103,7 +97,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -143,7 +137,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -424,18 +418,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K91"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="11" width="8.88671875" style="1"/>
+    <col min="8" max="9" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,25 +451,19 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>2641</v>
@@ -486,31 +474,25 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G2">
-        <v>10.600000000000001</v>
+      <c r="F2" s="1">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
       <c r="H2" s="1">
-        <v>7.7777777777777779E-2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K2" s="1">
+      <c r="I2" s="1">
         <v>0.9257142857142856</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2641</v>
@@ -521,31 +503,25 @@
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3">
-        <v>14</v>
-      </c>
-      <c r="G3">
-        <v>7.3</v>
+      <c r="F3" s="1">
+        <v>7.4444444444444452E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
       </c>
       <c r="H3" s="1">
-        <v>7.4444444444444452E-2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="I3" s="1">
         <v>0.96716417910447749</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>2641</v>
@@ -556,31 +532,25 @@
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>13.799999999999999</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="1">
+        <v>7.5555555555555542E-2</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="1">
-        <v>7.5555555555555542E-2</v>
-      </c>
-      <c r="I4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K4" s="1">
+      <c r="I4" s="1">
         <v>0.95294117647058829</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2641</v>
@@ -591,31 +561,25 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5">
-        <v>15.1</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
+      <c r="F5" s="1">
+        <v>6.777777777777777E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>7</v>
       </c>
       <c r="H5" s="1">
-        <v>6.777777777777777E-2</v>
-      </c>
-      <c r="I5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="I5" s="1">
         <v>1.0622950819672132</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>2641</v>
@@ -626,31 +590,25 @@
       <c r="E6">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>13.6</v>
-      </c>
-      <c r="G6">
-        <v>7.8</v>
+      <c r="F6" s="1">
+        <v>6.4444444444444443E-2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
       </c>
       <c r="H6" s="1">
-        <v>6.4444444444444443E-2</v>
-      </c>
-      <c r="I6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K6" s="1">
+      <c r="I6" s="1">
         <v>1.1172413793103448</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1946</v>
@@ -661,31 +619,25 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7">
-        <v>17.3</v>
-      </c>
-      <c r="G7">
-        <v>10.3</v>
+      <c r="F7" s="1">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
       </c>
       <c r="H7" s="1">
-        <v>7.7777777777777779E-2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="1">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="K7" s="1">
+      <c r="I7" s="1">
         <v>0.90857142857142859</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>1946</v>
@@ -696,31 +648,25 @@
       <c r="E8">
         <v>2</v>
       </c>
-      <c r="F8">
-        <v>15.799999999999999</v>
-      </c>
-      <c r="G8">
-        <v>9.3000000000000007</v>
+      <c r="F8" s="1">
+        <v>7.2222222222222202E-2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
       </c>
       <c r="H8" s="1">
-        <v>7.2222222222222202E-2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="1">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="K8" s="1">
+      <c r="I8" s="1">
         <v>0.97846153846153883</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>1946</v>
@@ -731,31 +677,25 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9">
-        <v>14.999999999999998</v>
-      </c>
-      <c r="G9">
-        <v>8.8000000000000007</v>
+      <c r="F9" s="1">
+        <v>6.8888888888888861E-2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
       </c>
       <c r="H9" s="1">
-        <v>6.8888888888888861E-2</v>
-      </c>
-      <c r="I9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="1">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="K9" s="1">
+      <c r="I9" s="1">
         <v>1.0258064516129037</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1946</v>
@@ -766,31 +706,25 @@
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10">
-        <v>13.6</v>
-      </c>
-      <c r="G10">
-        <v>6.8</v>
+      <c r="F10" s="1">
+        <v>7.5555555555555556E-2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
       </c>
       <c r="H10" s="1">
-        <v>7.5555555555555556E-2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="1">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="K10" s="1">
+      <c r="I10" s="1">
         <v>0.93529411764705883</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>1946</v>
@@ -801,31 +735,25 @@
       <c r="E11">
         <v>5</v>
       </c>
-      <c r="F11">
-        <v>15.799999999999999</v>
-      </c>
-      <c r="G11">
-        <v>9.5</v>
+      <c r="F11" s="1">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
       </c>
       <c r="H11" s="1">
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="1">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="K11" s="1">
+      <c r="I11" s="1">
         <v>1.0095238095238097</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>1590</v>
@@ -836,31 +764,25 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12">
-        <v>13.8</v>
-      </c>
-      <c r="G12">
-        <v>7.1000000000000005</v>
+      <c r="F12" s="1">
+        <v>7.4444444444444452E-2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
       </c>
       <c r="H12" s="1">
-        <v>7.4444444444444452E-2</v>
-      </c>
-      <c r="I12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="1">
         <v>6.7111111111111121E-2</v>
       </c>
-      <c r="K12" s="1">
+      <c r="I12" s="1">
         <v>0.90149253731343293</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>1590</v>
@@ -871,31 +793,25 @@
       <c r="E13">
         <v>2</v>
       </c>
-      <c r="F13">
-        <v>14</v>
-      </c>
-      <c r="G13">
-        <v>7.8</v>
+      <c r="F13" s="1">
+        <v>6.8888888888888888E-2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
       </c>
       <c r="H13" s="1">
-        <v>6.8888888888888888E-2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>12</v>
-      </c>
-      <c r="J13" s="1">
         <v>6.7111111111111121E-2</v>
       </c>
-      <c r="K13" s="1">
+      <c r="I13" s="1">
         <v>0.97419354838709693</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>1590</v>
@@ -906,31 +822,25 @@
       <c r="E14">
         <v>3</v>
       </c>
-      <c r="F14">
-        <v>14</v>
-      </c>
-      <c r="G14">
-        <v>7.8999999999999995</v>
+      <c r="F14" s="1">
+        <v>6.7777777777777784E-2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>10</v>
       </c>
       <c r="H14" s="1">
-        <v>6.7777777777777784E-2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>12</v>
-      </c>
-      <c r="J14" s="1">
         <v>6.7111111111111121E-2</v>
       </c>
-      <c r="K14" s="1">
+      <c r="I14" s="1">
         <v>0.99016393442622952</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>1590</v>
@@ -941,31 +851,25 @@
       <c r="E15">
         <v>4</v>
       </c>
-      <c r="F15">
-        <v>14.7</v>
-      </c>
-      <c r="G15">
-        <v>8.5</v>
+      <c r="F15" s="1">
+        <v>6.8888888888888875E-2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>10</v>
       </c>
       <c r="H15" s="1">
-        <v>6.8888888888888875E-2</v>
-      </c>
-      <c r="I15" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="1">
         <v>6.7111111111111121E-2</v>
       </c>
-      <c r="K15" s="1">
+      <c r="I15" s="1">
         <v>0.97419354838709715</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C16">
         <v>1590</v>
@@ -976,31 +880,25 @@
       <c r="E16">
         <v>5</v>
       </c>
-      <c r="F16">
-        <v>14.8</v>
-      </c>
-      <c r="G16">
-        <v>8.3000000000000007</v>
+      <c r="F16" s="1">
+        <v>7.2222222222222215E-2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
       </c>
       <c r="H16" s="1">
-        <v>7.2222222222222215E-2</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" s="1">
         <v>6.7111111111111121E-2</v>
       </c>
-      <c r="K16" s="1">
+      <c r="I16" s="1">
         <v>0.92923076923076942</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>2641</v>
@@ -1011,31 +909,25 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17">
-        <v>13.6</v>
-      </c>
-      <c r="G17">
-        <v>7.8</v>
+      <c r="F17" s="1">
+        <v>6.4444444444444443E-2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
       </c>
       <c r="H17" s="1">
-        <v>6.4444444444444443E-2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
-      <c r="J17" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K17" s="1">
+      <c r="I17" s="1">
         <v>1.1172413793103448</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>2641</v>
@@ -1046,31 +938,25 @@
       <c r="E18">
         <v>2</v>
       </c>
-      <c r="F18">
-        <v>13.1</v>
-      </c>
-      <c r="G18">
-        <v>7.2</v>
+      <c r="F18" s="1">
+        <v>6.5555555555555547E-2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>10</v>
       </c>
       <c r="H18" s="1">
-        <v>6.5555555555555547E-2</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-      <c r="J18" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K18" s="1">
+      <c r="I18" s="1">
         <v>1.0983050847457627</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>2641</v>
@@ -1081,31 +967,25 @@
       <c r="E19">
         <v>3</v>
       </c>
-      <c r="F19">
-        <v>15.4</v>
-      </c>
-      <c r="G19">
-        <v>9.3000000000000007</v>
+      <c r="F19" s="1">
+        <v>6.777777777777777E-2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>10</v>
       </c>
       <c r="H19" s="1">
-        <v>6.777777777777777E-2</v>
-      </c>
-      <c r="I19" t="s">
-        <v>12</v>
-      </c>
-      <c r="J19" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K19" s="1">
+      <c r="I19" s="1">
         <v>1.0622950819672132</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20">
         <v>2641</v>
@@ -1116,31 +996,25 @@
       <c r="E20">
         <v>4</v>
       </c>
-      <c r="F20">
-        <v>12.2</v>
-      </c>
-      <c r="G20">
-        <v>6.8</v>
+      <c r="F20" s="1">
+        <v>5.9999999999999991E-2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>10</v>
       </c>
       <c r="H20" s="1">
-        <v>5.9999999999999991E-2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K20" s="1">
+      <c r="I20" s="1">
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>2641</v>
@@ -1151,31 +1025,25 @@
       <c r="E21">
         <v>5</v>
       </c>
-      <c r="F21">
-        <v>16</v>
-      </c>
-      <c r="G21">
-        <v>10.1</v>
+      <c r="F21" s="1">
+        <v>6.5555555555555561E-2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
       </c>
       <c r="H21" s="1">
-        <v>6.5555555555555561E-2</v>
-      </c>
-      <c r="I21" t="s">
-        <v>12</v>
-      </c>
-      <c r="J21" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K21" s="1">
+      <c r="I21" s="1">
         <v>1.0983050847457625</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>1946</v>
@@ -1186,31 +1054,25 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="G22">
-        <v>11</v>
+      <c r="F22" s="1">
+        <v>6.5555555555555534E-2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>7</v>
       </c>
       <c r="H22" s="1">
-        <v>6.5555555555555534E-2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="1">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="K22" s="1">
+      <c r="I22" s="1">
         <v>1.0779661016949156</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>1946</v>
@@ -1221,31 +1083,25 @@
       <c r="E23">
         <v>2</v>
       </c>
-      <c r="F23">
-        <v>15.4</v>
-      </c>
-      <c r="G23">
-        <v>9.1999999999999993</v>
+      <c r="F23" s="1">
+        <v>6.8888888888888902E-2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
       </c>
       <c r="H23" s="1">
-        <v>6.8888888888888902E-2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="1">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="K23" s="1">
+      <c r="I23" s="1">
         <v>1.0258064516129031</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>1946</v>
@@ -1256,31 +1112,25 @@
       <c r="E24">
         <v>3</v>
       </c>
-      <c r="F24">
-        <v>13.2</v>
-      </c>
-      <c r="G24">
-        <v>7.1</v>
+      <c r="F24" s="1">
+        <v>6.777777777777777E-2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>7</v>
       </c>
       <c r="H24" s="1">
-        <v>6.777777777777777E-2</v>
-      </c>
-      <c r="I24" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="1">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="K24" s="1">
+      <c r="I24" s="1">
         <v>1.0426229508196723</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>1946</v>
@@ -1291,31 +1141,25 @@
       <c r="E25">
         <v>4</v>
       </c>
-      <c r="F25">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="G25">
-        <v>9.6</v>
+      <c r="F25" s="1">
+        <v>7.2222222222222243E-2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>7</v>
       </c>
       <c r="H25" s="1">
-        <v>7.2222222222222243E-2</v>
-      </c>
-      <c r="I25" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="1">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="K25" s="1">
+      <c r="I25" s="1">
         <v>0.97846153846153816</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C26">
         <v>1946</v>
@@ -1326,31 +1170,25 @@
       <c r="E26">
         <v>5</v>
       </c>
-      <c r="F26">
-        <v>15.9</v>
-      </c>
-      <c r="G26">
-        <v>8.8000000000000007</v>
+      <c r="F26" s="1">
+        <v>7.8888888888888883E-2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>7</v>
       </c>
       <c r="H26" s="1">
-        <v>7.8888888888888883E-2</v>
-      </c>
-      <c r="I26" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="1">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="K26" s="1">
+      <c r="I26" s="1">
         <v>0.89577464788732408</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C27">
         <v>1590</v>
@@ -1361,31 +1199,25 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="G27">
-        <v>10.200000000000001</v>
+      <c r="F27" s="1">
+        <v>7.6666666666666675E-2</v>
+      </c>
+      <c r="G27" t="s">
+        <v>10</v>
       </c>
       <c r="H27" s="1">
-        <v>7.6666666666666675E-2</v>
-      </c>
-      <c r="I27" t="s">
-        <v>12</v>
-      </c>
-      <c r="J27" s="1">
         <v>6.7111111111111121E-2</v>
       </c>
-      <c r="K27" s="1">
+      <c r="I27" s="1">
         <v>0.8753623188405798</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C28">
         <v>1590</v>
@@ -1396,31 +1228,25 @@
       <c r="E28">
         <v>2</v>
       </c>
-      <c r="F28">
-        <v>17.5</v>
-      </c>
-      <c r="G28">
-        <v>10.5</v>
+      <c r="F28" s="1">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>10</v>
       </c>
       <c r="H28" s="1">
-        <v>7.7777777777777779E-2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>12</v>
-      </c>
-      <c r="J28" s="1">
         <v>6.7111111111111121E-2</v>
       </c>
-      <c r="K28" s="1">
+      <c r="I28" s="1">
         <v>0.86285714285714299</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C29">
         <v>1590</v>
@@ -1431,31 +1257,25 @@
       <c r="E29">
         <v>3</v>
       </c>
-      <c r="F29">
-        <v>15.299999999999999</v>
-      </c>
-      <c r="G29">
-        <v>9</v>
+      <c r="F29" s="1">
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
       </c>
       <c r="H29" s="1">
-        <v>6.9999999999999993E-2</v>
-      </c>
-      <c r="I29" t="s">
-        <v>12</v>
-      </c>
-      <c r="J29" s="1">
         <v>6.7111111111111121E-2</v>
       </c>
-      <c r="K29" s="1">
+      <c r="I29" s="1">
         <v>0.95873015873015899</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C30">
         <v>1590</v>
@@ -1466,31 +1286,25 @@
       <c r="E30">
         <v>4</v>
       </c>
-      <c r="F30">
-        <v>14.5</v>
-      </c>
-      <c r="G30">
-        <v>7.5</v>
+      <c r="F30" s="1">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>10</v>
       </c>
       <c r="H30" s="1">
-        <v>7.7777777777777779E-2</v>
-      </c>
-      <c r="I30" t="s">
-        <v>12</v>
-      </c>
-      <c r="J30" s="1">
         <v>6.7111111111111121E-2</v>
       </c>
-      <c r="K30" s="1">
+      <c r="I30" s="1">
         <v>0.86285714285714299</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>1590</v>
@@ -1501,31 +1315,25 @@
       <c r="E31">
         <v>5</v>
       </c>
-      <c r="F31">
-        <v>15.7</v>
-      </c>
-      <c r="G31">
-        <v>9</v>
+      <c r="F31" s="1">
+        <v>7.4444444444444438E-2</v>
+      </c>
+      <c r="G31" t="s">
+        <v>10</v>
       </c>
       <c r="H31" s="1">
-        <v>7.4444444444444438E-2</v>
-      </c>
-      <c r="I31" t="s">
-        <v>12</v>
-      </c>
-      <c r="J31" s="1">
         <v>6.7111111111111121E-2</v>
       </c>
-      <c r="K31" s="1">
+      <c r="I31" s="1">
         <v>0.90149253731343304</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C32">
         <v>2641</v>
@@ -1536,31 +1344,25 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32">
-        <v>12.7</v>
-      </c>
-      <c r="G32">
-        <v>6.6</v>
+      <c r="F32" s="1">
+        <v>6.777777777777777E-2</v>
+      </c>
+      <c r="G32" t="s">
+        <v>10</v>
       </c>
       <c r="H32" s="1">
-        <v>6.777777777777777E-2</v>
-      </c>
-      <c r="I32" t="s">
-        <v>12</v>
-      </c>
-      <c r="J32" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K32" s="1">
+      <c r="I32" s="1">
         <v>1.0622950819672132</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C33">
         <v>2641</v>
@@ -1571,31 +1373,25 @@
       <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33">
-        <v>13</v>
-      </c>
-      <c r="G33">
-        <v>7</v>
+      <c r="F33" s="1">
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>10</v>
       </c>
       <c r="H33" s="1">
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>12</v>
-      </c>
-      <c r="J33" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K33" s="1">
+      <c r="I33" s="1">
         <v>1.0799999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C34">
         <v>2641</v>
@@ -1606,31 +1402,25 @@
       <c r="E34">
         <v>3</v>
       </c>
-      <c r="F34">
-        <v>14.2</v>
-      </c>
-      <c r="G34">
-        <v>8</v>
+      <c r="F34" s="1">
+        <v>6.8888888888888875E-2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>10</v>
       </c>
       <c r="H34" s="1">
-        <v>6.8888888888888875E-2</v>
-      </c>
-      <c r="I34" t="s">
-        <v>12</v>
-      </c>
-      <c r="J34" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K34" s="1">
+      <c r="I34" s="1">
         <v>1.0451612903225809</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C35">
         <v>2641</v>
@@ -1641,31 +1431,25 @@
       <c r="E35">
         <v>4</v>
       </c>
-      <c r="F35">
-        <v>14.5</v>
-      </c>
-      <c r="G35">
-        <v>8.6</v>
+      <c r="F35" s="1">
+        <v>6.5555555555555561E-2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
       </c>
       <c r="H35" s="1">
-        <v>6.5555555555555561E-2</v>
-      </c>
-      <c r="I35" t="s">
-        <v>12</v>
-      </c>
-      <c r="J35" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K35" s="1">
+      <c r="I35" s="1">
         <v>1.0983050847457625</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C36">
         <v>2641</v>
@@ -1676,31 +1460,25 @@
       <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36">
-        <v>15</v>
-      </c>
-      <c r="G36">
-        <v>9.5</v>
+      <c r="F36" s="1">
+        <v>6.1111111111111109E-2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>10</v>
       </c>
       <c r="H36" s="1">
-        <v>6.1111111111111109E-2</v>
-      </c>
-      <c r="I36" t="s">
-        <v>12</v>
-      </c>
-      <c r="J36" s="1">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="K36" s="1">
+      <c r="I36" s="1">
         <v>1.1781818181818182</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>1946</v>
@@ -1711,31 +1489,25 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37">
-        <v>15.1</v>
-      </c>
-      <c r="G37">
-        <v>8.5</v>
+      <c r="F37" s="1">
+        <v>7.3333333333333334E-2</v>
+      </c>
+      <c r="G37" t="s">
+        <v>10</v>
       </c>
       <c r="H37" s="1">
-        <v>7.3333333333333334E-2</v>
-      </c>
-      <c r="I37" t="s">
-        <v>12</v>
-      </c>
-      <c r="J37" s="1">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="K37" s="1">
+      <c r="I37" s="1">
         <v>0.96363636363636362</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C38">
         <v>1946</v>
@@ -1746,31 +1518,25 @@
       <c r="E38">
         <v>2</v>
       </c>
-      <c r="F38">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G38">
-        <v>11.3</v>
+      <c r="F38" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G38" t="s">
+        <v>10</v>
       </c>
       <c r="H38" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I38" t="s">
-        <v>12</v>
-      </c>
-      <c r="J38" s="1">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="K38" s="1">
+      <c r="I38" s="1">
         <v>1.0095238095238095</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39">
         <v>1946</v>
@@ -1781,31 +1547,25 @@
       <c r="E39">
         <v>3</v>
       </c>
-      <c r="F39">
-        <v>16.5</v>
-      </c>
-      <c r="G39">
-        <v>9.5</v>
+      <c r="F39" s="1">
+        <v>7.7777777777777779E-2</v>
+      </c>
+      <c r="G39" t="s">
+        <v>10</v>
       </c>
       <c r="H39" s="1">
-        <v>7.7777777777777779E-2</v>
-      </c>
-      <c r="I39" t="s">
-        <v>12</v>
-      </c>
-      <c r="J39" s="1">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="K39" s="1">
+      <c r="I39" s="1">
         <v>0.90857142857142859</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40">
         <v>1946</v>
@@ -1816,31 +1576,25 @@
       <c r="E40">
         <v>4</v>
       </c>
-      <c r="F40">
-        <v>17.5</v>
-      </c>
-      <c r="G40">
-        <v>10.700000000000001</v>
+      <c r="F40" s="1">
+        <v>7.5555555555555542E-2</v>
+      </c>
+      <c r="G40" t="s">
+        <v>10</v>
       </c>
       <c r="H40" s="1">
-        <v>7.5555555555555542E-2</v>
-      </c>
-      <c r="I40" t="s">
-        <v>12</v>
-      </c>
-      <c r="J40" s="1">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="K40" s="1">
+      <c r="I40" s="1">
         <v>0.93529411764705905</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41">
         <v>1946</v>
@@ -1851,31 +1605,25 @@
       <c r="E41">
         <v>5</v>
       </c>
-      <c r="F41">
-        <v>16.600000000000001</v>
-      </c>
-      <c r="G41">
-        <v>10.100000000000001</v>
+      <c r="F41" s="1">
+        <v>7.2222222222222215E-2</v>
+      </c>
+      <c r="G41" t="s">
+        <v>10</v>
       </c>
       <c r="H41" s="1">
-        <v>7.2222222222222215E-2</v>
-      </c>
-      <c r="I41" t="s">
-        <v>12</v>
-      </c>
-      <c r="J41" s="1">
         <v>7.0666666666666669E-2</v>
       </c>
-      <c r="K41" s="1">
+      <c r="I41" s="1">
         <v>0.9784615384615386</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42">
         <v>1590</v>
@@ -1886,31 +1634,25 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42">
-        <v>16.8</v>
-      </c>
-      <c r="G42">
-        <v>10.6</v>
+      <c r="F42" s="1">
+        <v>6.8888888888888902E-2</v>
+      </c>
+      <c r="G42" t="s">
+        <v>7</v>
       </c>
       <c r="H42" s="1">
-        <v>6.8888888888888902E-2</v>
-      </c>
-      <c r="I42" t="s">
-        <v>9</v>
-      </c>
-      <c r="J42" s="1">
         <v>6.7111111111111121E-2</v>
       </c>
-      <c r="K42" s="1">
+      <c r="I42" s="1">
         <v>0.97419354838709671</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>1590</v>
@@ -1921,31 +1663,25 @@
       <c r="E43">
         <v>2</v>
       </c>
-      <c r="F43">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G43">
-        <v>11.6</v>
+      <c r="F43" s="1">
+        <v>6.666666666666668E-2</v>
+      </c>
+      <c r="G43" t="s">
+        <v>7</v>
       </c>
       <c r="H43" s="1">
-        <v>6.666666666666668E-2</v>
-      </c>
-      <c r="I43" t="s">
-        <v>9</v>
-      </c>
-      <c r="J43" s="1">
         <v>6.7111111111111121E-2</v>
       </c>
-      <c r="K43" s="1">
+      <c r="I43" s="1">
         <v>1.0066666666666666</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>1590</v>
@@ -1956,31 +1692,25 @@
       <c r="E44">
         <v>3</v>
       </c>
-      <c r="F44">
-        <v>17.3</v>
-      </c>
-      <c r="G44">
-        <v>11.5</v>
+      <c r="F44" s="1">
+        <v>6.4444444444444457E-2</v>
+      </c>
+      <c r="G44" t="s">
+        <v>7</v>
       </c>
       <c r="H44" s="1">
-        <v>6.4444444444444457E-2</v>
-      </c>
-      <c r="I44" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44" s="1">
         <v>6.7111111111111121E-2</v>
       </c>
-      <c r="K44" s="1">
+      <c r="I44" s="1">
         <v>1.0413793103448274</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45">
         <v>1590</v>
@@ -1991,31 +1721,25 @@
       <c r="E45">
         <v>4</v>
       </c>
-      <c r="F45">
-        <v>16.5</v>
-      </c>
-      <c r="G45">
-        <v>10.3</v>
+      <c r="F45" s="1">
+        <v>6.8888888888888875E-2</v>
+      </c>
+      <c r="G45" t="s">
+        <v>7</v>
       </c>
       <c r="H45" s="1">
-        <v>6.8888888888888875E-2</v>
-      </c>
-      <c r="I45" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45" s="1">
         <v>6.7111111111111121E-2</v>
       </c>
-      <c r="K45" s="1">
+      <c r="I45" s="1">
         <v>0.97419354838709715</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C46">
         <v>1590</v>
@@ -2026,31 +1750,25 @@
       <c r="E46">
         <v>5</v>
       </c>
-      <c r="F46">
-        <v>15.400000000000002</v>
-      </c>
-      <c r="G46">
-        <v>9.4</v>
+      <c r="F46" s="1">
+        <v>6.666666666666668E-2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>7</v>
       </c>
       <c r="H46" s="1">
-        <v>6.666666666666668E-2</v>
-      </c>
-      <c r="I46" t="s">
-        <v>9</v>
-      </c>
-      <c r="J46" s="1">
         <v>6.7111111111111121E-2</v>
       </c>
-      <c r="K46" s="1">
+      <c r="I46" s="1">
         <v>1.0066666666666666</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C47">
         <v>2641</v>
@@ -2061,31 +1779,25 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47">
-        <v>50.800000000000004</v>
-      </c>
-      <c r="G47">
-        <v>27.2</v>
+      <c r="F47" s="1">
+        <v>0.2622222222222223</v>
+      </c>
+      <c r="G47" t="s">
+        <v>7</v>
       </c>
       <c r="H47" s="1">
-        <v>0.2622222222222223</v>
-      </c>
-      <c r="I47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J47" s="1">
         <v>0.26711111111111119</v>
       </c>
-      <c r="K47" s="1">
+      <c r="I47" s="1">
         <v>1.0186440677966102</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C48">
         <v>2641</v>
@@ -2096,31 +1808,25 @@
       <c r="E48">
         <v>2</v>
       </c>
-      <c r="F48">
-        <v>44.2</v>
-      </c>
-      <c r="G48">
-        <v>23.8</v>
+      <c r="F48" s="1">
+        <v>0.22666666666666668</v>
+      </c>
+      <c r="G48" t="s">
+        <v>7</v>
       </c>
       <c r="H48" s="1">
-        <v>0.22666666666666668</v>
-      </c>
-      <c r="I48" t="s">
-        <v>9</v>
-      </c>
-      <c r="J48" s="1">
         <v>0.26711111111111119</v>
       </c>
-      <c r="K48" s="1">
+      <c r="I48" s="1">
         <v>1.1784313725490199</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C49">
         <v>2641</v>
@@ -2131,31 +1837,25 @@
       <c r="E49">
         <v>3</v>
       </c>
-      <c r="F49">
-        <v>50.2</v>
-      </c>
-      <c r="G49">
-        <v>22.8</v>
+      <c r="F49" s="1">
+        <v>0.30444444444444446</v>
+      </c>
+      <c r="G49" t="s">
+        <v>7</v>
       </c>
       <c r="H49" s="1">
-        <v>0.30444444444444446</v>
-      </c>
-      <c r="I49" t="s">
-        <v>9</v>
-      </c>
-      <c r="J49" s="1">
         <v>0.26711111111111119</v>
       </c>
-      <c r="K49" s="1">
+      <c r="I49" s="1">
         <v>0.87737226277372282</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C50">
         <v>2641</v>
@@ -2166,31 +1866,25 @@
       <c r="E50">
         <v>4</v>
       </c>
-      <c r="F50">
-        <v>41.900000000000006</v>
-      </c>
-      <c r="G50">
-        <v>22</v>
+      <c r="F50" s="1">
+        <v>0.22111111111111117</v>
+      </c>
+      <c r="G50" t="s">
+        <v>7</v>
       </c>
       <c r="H50" s="1">
-        <v>0.22111111111111117</v>
-      </c>
-      <c r="I50" t="s">
-        <v>9</v>
-      </c>
-      <c r="J50" s="1">
         <v>0.26711111111111119</v>
       </c>
-      <c r="K50" s="1">
+      <c r="I50" s="1">
         <v>1.2080402010050251</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C51">
         <v>2641</v>
@@ -2201,31 +1895,25 @@
       <c r="E51">
         <v>5</v>
       </c>
-      <c r="F51">
-        <v>47.2</v>
-      </c>
-      <c r="G51">
-        <v>18.3</v>
+      <c r="F51" s="1">
+        <v>0.32111111111111112</v>
+      </c>
+      <c r="G51" t="s">
+        <v>7</v>
       </c>
       <c r="H51" s="1">
-        <v>0.32111111111111112</v>
-      </c>
-      <c r="I51" t="s">
-        <v>9</v>
-      </c>
-      <c r="J51" s="1">
         <v>0.26711111111111119</v>
       </c>
-      <c r="K51" s="1">
+      <c r="I51" s="1">
         <v>0.83183391003460228</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C52">
         <v>1946</v>
@@ -2236,31 +1924,25 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52">
-        <v>35.900000000000006</v>
-      </c>
-      <c r="G52">
-        <v>21</v>
+      <c r="F52" s="1">
+        <v>0.16555555555555562</v>
+      </c>
+      <c r="G52" t="s">
+        <v>10</v>
       </c>
       <c r="H52" s="1">
-        <v>0.16555555555555562</v>
-      </c>
-      <c r="I52" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="1">
         <v>0.1468888888888889</v>
       </c>
-      <c r="K52" s="1">
+      <c r="I52" s="1">
         <v>0.8872483221476507</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C53">
         <v>1946</v>
@@ -2271,31 +1953,25 @@
       <c r="E53">
         <v>2</v>
       </c>
-      <c r="F53">
-        <v>43.400000000000006</v>
-      </c>
-      <c r="G53">
-        <v>21.8</v>
+      <c r="F53" s="1">
+        <v>0.24000000000000005</v>
+      </c>
+      <c r="G53" t="s">
+        <v>10</v>
       </c>
       <c r="H53" s="1">
-        <v>0.24000000000000005</v>
-      </c>
-      <c r="I53" t="s">
-        <v>12</v>
-      </c>
-      <c r="J53" s="1">
         <v>0.1468888888888889</v>
       </c>
-      <c r="K53" s="1">
+      <c r="I53" s="1">
         <v>0.61203703703703694</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C54">
         <v>1946</v>
@@ -2306,31 +1982,25 @@
       <c r="E54">
         <v>3</v>
       </c>
-      <c r="F54">
-        <v>35.900000000000006</v>
-      </c>
-      <c r="G54">
-        <v>20.8</v>
+      <c r="F54" s="1">
+        <v>0.16777777777777783</v>
+      </c>
+      <c r="G54" t="s">
+        <v>10</v>
       </c>
       <c r="H54" s="1">
-        <v>0.16777777777777783</v>
-      </c>
-      <c r="I54" t="s">
-        <v>12</v>
-      </c>
-      <c r="J54" s="1">
         <v>0.1468888888888889</v>
       </c>
-      <c r="K54" s="1">
+      <c r="I54" s="1">
         <v>0.87549668874172171</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C55">
         <v>1946</v>
@@ -2341,31 +2011,25 @@
       <c r="E55">
         <v>4</v>
       </c>
-      <c r="F55">
-        <v>40.800000000000004</v>
-      </c>
-      <c r="G55">
-        <v>20.5</v>
+      <c r="F55" s="1">
+        <v>0.22555555555555559</v>
+      </c>
+      <c r="G55" t="s">
+        <v>10</v>
       </c>
       <c r="H55" s="1">
-        <v>0.22555555555555559</v>
-      </c>
-      <c r="I55" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="1">
         <v>0.1468888888888889</v>
       </c>
-      <c r="K55" s="1">
+      <c r="I55" s="1">
         <v>0.651231527093596</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C56">
         <v>1946</v>
@@ -2376,31 +2040,25 @@
       <c r="E56">
         <v>5</v>
       </c>
-      <c r="F56">
-        <v>41.2</v>
-      </c>
-      <c r="G56">
-        <v>22</v>
+      <c r="F56" s="1">
+        <v>0.21333333333333337</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
       </c>
       <c r="H56" s="1">
-        <v>0.21333333333333337</v>
-      </c>
-      <c r="I56" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="1">
         <v>0.1468888888888889</v>
       </c>
-      <c r="K56" s="1">
+      <c r="I56" s="1">
         <v>0.68854166666666661</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C57">
         <v>1590</v>
@@ -2411,31 +2069,25 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57">
-        <v>38.6</v>
-      </c>
-      <c r="G57">
-        <v>25</v>
+      <c r="F57" s="1">
+        <v>0.15111111111111114</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
       </c>
       <c r="H57" s="1">
-        <v>0.15111111111111114</v>
-      </c>
-      <c r="I57" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="1">
         <v>0.10777777777777778</v>
       </c>
-      <c r="K57" s="1">
+      <c r="I57" s="1">
         <v>0.71323529411764697</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C58">
         <v>1590</v>
@@ -2446,31 +2098,25 @@
       <c r="E58">
         <v>2</v>
       </c>
-      <c r="F58">
-        <v>43.800000000000004</v>
-      </c>
-      <c r="G58">
-        <v>24.5</v>
+      <c r="F58" s="1">
+        <v>0.21444444444444449</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
       </c>
       <c r="H58" s="1">
-        <v>0.21444444444444449</v>
-      </c>
-      <c r="I58" t="s">
-        <v>12</v>
-      </c>
-      <c r="J58" s="1">
         <v>0.10777777777777778</v>
       </c>
-      <c r="K58" s="1">
+      <c r="I58" s="1">
         <v>0.50259067357512943</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C59">
         <v>1590</v>
@@ -2481,31 +2127,25 @@
       <c r="E59">
         <v>3</v>
       </c>
-      <c r="F59">
-        <v>40</v>
-      </c>
-      <c r="G59">
-        <v>21.5</v>
+      <c r="F59" s="1">
+        <v>0.20555555555555555</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
       </c>
       <c r="H59" s="1">
-        <v>0.20555555555555555</v>
-      </c>
-      <c r="I59" t="s">
-        <v>12</v>
-      </c>
-      <c r="J59" s="1">
         <v>0.10777777777777778</v>
       </c>
-      <c r="K59" s="1">
+      <c r="I59" s="1">
         <v>0.5243243243243243</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C60">
         <v>1590</v>
@@ -2516,31 +2156,25 @@
       <c r="E60">
         <v>4</v>
       </c>
-      <c r="F60">
-        <v>45.400000000000006</v>
-      </c>
-      <c r="G60">
-        <v>27.6</v>
+      <c r="F60" s="1">
+        <v>0.19777777777777783</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
       </c>
       <c r="H60" s="1">
-        <v>0.19777777777777783</v>
-      </c>
-      <c r="I60" t="s">
-        <v>12</v>
-      </c>
-      <c r="J60" s="1">
         <v>0.10777777777777778</v>
       </c>
-      <c r="K60" s="1">
+      <c r="I60" s="1">
         <v>0.54494382022471899</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C61">
         <v>1590</v>
@@ -2551,31 +2185,25 @@
       <c r="E61">
         <v>5</v>
       </c>
-      <c r="F61">
-        <v>41.2</v>
-      </c>
-      <c r="G61">
-        <v>20</v>
+      <c r="F61" s="1">
+        <v>0.23555555555555557</v>
+      </c>
+      <c r="G61" t="s">
+        <v>10</v>
       </c>
       <c r="H61" s="1">
-        <v>0.23555555555555557</v>
-      </c>
-      <c r="I61" t="s">
-        <v>12</v>
-      </c>
-      <c r="J61" s="1">
         <v>0.10777777777777778</v>
       </c>
-      <c r="K61" s="1">
+      <c r="I61" s="1">
         <v>0.45754716981132071</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C62">
         <v>2641</v>
@@ -2586,31 +2214,25 @@
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62">
-        <v>37.6</v>
-      </c>
-      <c r="G62">
-        <v>19.8</v>
+      <c r="F62" s="1">
+        <v>0.19777777777777777</v>
+      </c>
+      <c r="G62" t="s">
+        <v>10</v>
       </c>
       <c r="H62" s="1">
-        <v>0.19777777777777777</v>
-      </c>
-      <c r="I62" t="s">
-        <v>12</v>
-      </c>
-      <c r="J62" s="1">
         <v>0.26711111111111119</v>
       </c>
-      <c r="K62" s="1">
+      <c r="I62" s="1">
         <v>1.3505617977528095</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C63">
         <v>2641</v>
@@ -2621,31 +2243,25 @@
       <c r="E63">
         <v>2</v>
       </c>
-      <c r="F63">
-        <v>26.999999999999996</v>
-      </c>
-      <c r="G63">
-        <v>16</v>
+      <c r="F63" s="1">
+        <v>0.12222222222222218</v>
+      </c>
+      <c r="G63" t="s">
+        <v>10</v>
       </c>
       <c r="H63" s="1">
-        <v>0.12222222222222218</v>
-      </c>
-      <c r="I63" t="s">
-        <v>12</v>
-      </c>
-      <c r="J63" s="1">
         <v>0.26711111111111119</v>
       </c>
-      <c r="K63" s="1">
+      <c r="I63" s="1">
         <v>2.1854545454545469</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C64">
         <v>2641</v>
@@ -2656,31 +2272,25 @@
       <c r="E64">
         <v>3</v>
       </c>
-      <c r="F64">
-        <v>35.900000000000006</v>
-      </c>
-      <c r="G64">
-        <v>20</v>
+      <c r="F64" s="1">
+        <v>0.17666666666666672</v>
+      </c>
+      <c r="G64" t="s">
+        <v>10</v>
       </c>
       <c r="H64" s="1">
-        <v>0.17666666666666672</v>
-      </c>
-      <c r="I64" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="1">
         <v>0.26711111111111119</v>
       </c>
-      <c r="K64" s="1">
+      <c r="I64" s="1">
         <v>1.5119496855345911</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C65">
         <v>2641</v>
@@ -2691,31 +2301,25 @@
       <c r="E65">
         <v>4</v>
       </c>
-      <c r="F65">
-        <v>28.2</v>
-      </c>
-      <c r="G65">
-        <v>18.600000000000001</v>
+      <c r="F65" s="1">
+        <v>0.10666666666666665</v>
+      </c>
+      <c r="G65" t="s">
+        <v>10</v>
       </c>
       <c r="H65" s="1">
-        <v>0.10666666666666665</v>
-      </c>
-      <c r="I65" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="1">
         <v>0.26711111111111119</v>
       </c>
-      <c r="K65" s="1">
+      <c r="I65" s="1">
         <v>2.5041666666666678</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C66">
         <v>2641</v>
@@ -2726,31 +2330,25 @@
       <c r="E66">
         <v>5</v>
       </c>
-      <c r="F66">
-        <v>40.400000000000006</v>
-      </c>
-      <c r="G66">
-        <v>22.5</v>
+      <c r="F66" s="1">
+        <v>0.19888888888888895</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
       </c>
       <c r="H66" s="1">
-        <v>0.19888888888888895</v>
-      </c>
-      <c r="I66" t="s">
-        <v>12</v>
-      </c>
-      <c r="J66" s="1">
         <v>0.26711111111111119</v>
       </c>
-      <c r="K66" s="1">
+      <c r="I66" s="1">
         <v>1.3430167597765363</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C67">
         <v>1946</v>
@@ -2761,31 +2359,25 @@
       <c r="E67">
         <v>1</v>
       </c>
-      <c r="F67">
-        <v>36</v>
-      </c>
-      <c r="G67">
-        <v>19.600000000000001</v>
+      <c r="F67" s="1">
+        <v>0.1822222222222222</v>
+      </c>
+      <c r="G67" t="s">
+        <v>7</v>
       </c>
       <c r="H67" s="1">
-        <v>0.1822222222222222</v>
-      </c>
-      <c r="I67" t="s">
-        <v>9</v>
-      </c>
-      <c r="J67" s="1">
         <v>0.22033333333333335</v>
       </c>
-      <c r="K67" s="1">
+      <c r="I67" s="1">
         <v>1.2091463414634149</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C68">
         <v>1946</v>
@@ -2796,31 +2388,25 @@
       <c r="E68">
         <v>2</v>
       </c>
-      <c r="F68">
-        <v>25</v>
-      </c>
-      <c r="G68">
-        <v>14</v>
+      <c r="F68" s="1">
+        <v>0.12222222222222222</v>
+      </c>
+      <c r="G68" t="s">
+        <v>7</v>
       </c>
       <c r="H68" s="1">
-        <v>0.12222222222222222</v>
-      </c>
-      <c r="I68" t="s">
-        <v>9</v>
-      </c>
-      <c r="J68" s="1">
         <v>0.22033333333333335</v>
       </c>
-      <c r="K68" s="1">
+      <c r="I68" s="1">
         <v>1.802727272727273</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C69">
         <v>1946</v>
@@ -2831,31 +2417,25 @@
       <c r="E69">
         <v>3</v>
       </c>
-      <c r="F69">
-        <v>32.900000000000006</v>
-      </c>
-      <c r="G69">
-        <v>19.5</v>
+      <c r="F69" s="1">
+        <v>0.14888888888888896</v>
+      </c>
+      <c r="G69" t="s">
+        <v>7</v>
       </c>
       <c r="H69" s="1">
-        <v>0.14888888888888896</v>
-      </c>
-      <c r="I69" t="s">
-        <v>9</v>
-      </c>
-      <c r="J69" s="1">
         <v>0.22033333333333335</v>
       </c>
-      <c r="K69" s="1">
+      <c r="I69" s="1">
         <v>1.4798507462686561</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C70">
         <v>1946</v>
@@ -2866,31 +2446,25 @@
       <c r="E70">
         <v>4</v>
       </c>
-      <c r="F70">
-        <v>27.2</v>
-      </c>
-      <c r="G70">
-        <v>14.7</v>
+      <c r="F70" s="1">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="G70" t="s">
+        <v>7</v>
       </c>
       <c r="H70" s="1">
-        <v>0.1388888888888889</v>
-      </c>
-      <c r="I70" t="s">
-        <v>9</v>
-      </c>
-      <c r="J70" s="1">
         <v>0.22033333333333335</v>
       </c>
-      <c r="K70" s="1">
+      <c r="I70" s="1">
         <v>1.5864</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C71">
         <v>1946</v>
@@ -2901,31 +2475,25 @@
       <c r="E71">
         <v>5</v>
       </c>
-      <c r="F71">
-        <v>32.6</v>
-      </c>
-      <c r="G71">
-        <v>19.8</v>
+      <c r="F71" s="1">
+        <v>0.14222222222222222</v>
+      </c>
+      <c r="G71" t="s">
+        <v>7</v>
       </c>
       <c r="H71" s="1">
-        <v>0.14222222222222222</v>
-      </c>
-      <c r="I71" t="s">
-        <v>9</v>
-      </c>
-      <c r="J71" s="1">
         <v>0.22033333333333335</v>
       </c>
-      <c r="K71" s="1">
+      <c r="I71" s="1">
         <v>1.5492187500000001</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C72">
         <v>1590</v>
@@ -2936,31 +2504,25 @@
       <c r="E72">
         <v>1</v>
       </c>
-      <c r="F72">
-        <v>21.2</v>
-      </c>
-      <c r="G72">
-        <v>12</v>
+      <c r="F72" s="1">
+        <v>0.10222222222222221</v>
+      </c>
+      <c r="G72" t="s">
+        <v>10</v>
       </c>
       <c r="H72" s="1">
-        <v>0.10222222222222221</v>
-      </c>
-      <c r="I72" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="1">
         <v>0.10777777777777778</v>
       </c>
-      <c r="K72" s="1">
+      <c r="I72" s="1">
         <v>1.0543478260869565</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C73">
         <v>1590</v>
@@ -2971,31 +2533,25 @@
       <c r="E73">
         <v>2</v>
       </c>
-      <c r="F73">
-        <v>26.400000000000002</v>
-      </c>
-      <c r="G73">
-        <v>18.5</v>
+      <c r="F73" s="1">
+        <v>8.7777777777777802E-2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>10</v>
       </c>
       <c r="H73" s="1">
-        <v>8.7777777777777802E-2</v>
-      </c>
-      <c r="I73" t="s">
-        <v>12</v>
-      </c>
-      <c r="J73" s="1">
         <v>0.10777777777777778</v>
       </c>
-      <c r="K73" s="1">
+      <c r="I73" s="1">
         <v>1.2278481012658224</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C74">
         <v>1590</v>
@@ -3006,31 +2562,25 @@
       <c r="E74">
         <v>3</v>
       </c>
-      <c r="F74">
-        <v>27.7</v>
-      </c>
-      <c r="G74">
-        <v>19</v>
+      <c r="F74" s="1">
+        <v>9.6666666666666665E-2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>10</v>
       </c>
       <c r="H74" s="1">
-        <v>9.6666666666666665E-2</v>
-      </c>
-      <c r="I74" t="s">
-        <v>12</v>
-      </c>
-      <c r="J74" s="1">
         <v>0.10777777777777778</v>
       </c>
-      <c r="K74" s="1">
+      <c r="I74" s="1">
         <v>1.1149425287356323</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C75">
         <v>1590</v>
@@ -3041,31 +2591,25 @@
       <c r="E75">
         <v>4</v>
       </c>
-      <c r="F75">
-        <v>31.900000000000002</v>
-      </c>
-      <c r="G75">
-        <v>19.600000000000001</v>
+      <c r="F75" s="1">
+        <v>0.13666666666666669</v>
+      </c>
+      <c r="G75" t="s">
+        <v>10</v>
       </c>
       <c r="H75" s="1">
-        <v>0.13666666666666669</v>
-      </c>
-      <c r="I75" t="s">
-        <v>12</v>
-      </c>
-      <c r="J75" s="1">
         <v>0.10777777777777778</v>
       </c>
-      <c r="K75" s="1">
+      <c r="I75" s="1">
         <v>0.78861788617886164</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C76">
         <v>1590</v>
@@ -3076,31 +2620,25 @@
       <c r="E76">
         <v>5</v>
       </c>
-      <c r="F76">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G76">
-        <v>12.7</v>
+      <c r="F76" s="1">
+        <v>9.8888888888888873E-2</v>
+      </c>
+      <c r="G76" t="s">
+        <v>10</v>
       </c>
       <c r="H76" s="1">
-        <v>9.8888888888888873E-2</v>
-      </c>
-      <c r="I76" t="s">
-        <v>12</v>
-      </c>
-      <c r="J76" s="1">
         <v>0.10777777777777778</v>
       </c>
-      <c r="K76" s="1">
+      <c r="I76" s="1">
         <v>1.0898876404494384</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C77">
         <v>2641</v>
@@ -3111,31 +2649,25 @@
       <c r="E77">
         <v>1</v>
       </c>
-      <c r="F77">
-        <v>35.1</v>
-      </c>
-      <c r="G77">
-        <v>19.600000000000001</v>
+      <c r="F77" s="1">
+        <v>0.17222222222222222</v>
+      </c>
+      <c r="G77" t="s">
+        <v>10</v>
       </c>
       <c r="H77" s="1">
-        <v>0.17222222222222222</v>
-      </c>
-      <c r="I77" t="s">
-        <v>12</v>
-      </c>
-      <c r="J77" s="1">
         <v>0.26711111111111119</v>
       </c>
-      <c r="K77" s="1">
+      <c r="I77" s="1">
         <v>1.5509677419354844</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C78">
         <v>2641</v>
@@ -3146,31 +2678,25 @@
       <c r="E78">
         <v>2</v>
       </c>
-      <c r="F78">
-        <v>29.3</v>
-      </c>
-      <c r="G78">
-        <v>19</v>
+      <c r="F78" s="1">
+        <v>0.11444444444444445</v>
+      </c>
+      <c r="G78" t="s">
+        <v>10</v>
       </c>
       <c r="H78" s="1">
-        <v>0.11444444444444445</v>
-      </c>
-      <c r="I78" t="s">
-        <v>12</v>
-      </c>
-      <c r="J78" s="1">
         <v>0.26711111111111119</v>
       </c>
-      <c r="K78" s="1">
+      <c r="I78" s="1">
         <v>2.3339805825242723</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C79">
         <v>2641</v>
@@ -3181,31 +2707,25 @@
       <c r="E79">
         <v>3</v>
       </c>
-      <c r="F79">
-        <v>33.4</v>
-      </c>
-      <c r="G79">
-        <v>18.2</v>
+      <c r="F79" s="1">
+        <v>0.16888888888888889</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
       </c>
       <c r="H79" s="1">
-        <v>0.16888888888888889</v>
-      </c>
-      <c r="I79" t="s">
-        <v>12</v>
-      </c>
-      <c r="J79" s="1">
         <v>0.26711111111111119</v>
       </c>
-      <c r="K79" s="1">
+      <c r="I79" s="1">
         <v>1.5815789473684214</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C80">
         <v>2641</v>
@@ -3216,31 +2736,25 @@
       <c r="E80">
         <v>4</v>
       </c>
-      <c r="F80">
-        <v>24.4</v>
-      </c>
-      <c r="G80">
-        <v>14.1</v>
+      <c r="F80" s="1">
+        <v>0.11444444444444443</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
       </c>
       <c r="H80" s="1">
-        <v>0.11444444444444443</v>
-      </c>
-      <c r="I80" t="s">
-        <v>12</v>
-      </c>
-      <c r="J80" s="1">
         <v>0.26711111111111119</v>
       </c>
-      <c r="K80" s="1">
+      <c r="I80" s="1">
         <v>2.3339805825242728</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C81">
         <v>2641</v>
@@ -3251,31 +2765,25 @@
       <c r="E81">
         <v>5</v>
       </c>
-      <c r="F81">
-        <v>24.2</v>
-      </c>
-      <c r="G81">
-        <v>15.3</v>
+      <c r="F81" s="1">
+        <v>9.8888888888888873E-2</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
       </c>
       <c r="H81" s="1">
-        <v>9.8888888888888873E-2</v>
-      </c>
-      <c r="I81" t="s">
-        <v>12</v>
-      </c>
-      <c r="J81" s="1">
         <v>0.26711111111111119</v>
       </c>
-      <c r="K81" s="1">
+      <c r="I81" s="1">
         <v>2.701123595505619</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C82">
         <v>1946</v>
@@ -3286,31 +2794,25 @@
       <c r="E82">
         <v>1</v>
       </c>
-      <c r="F82">
-        <v>28.7</v>
-      </c>
-      <c r="G82">
-        <v>16.899999999999999</v>
+      <c r="F82" s="1">
+        <v>0.13111111111111112</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
       </c>
       <c r="H82" s="1">
-        <v>0.13111111111111112</v>
-      </c>
-      <c r="I82" t="s">
-        <v>12</v>
-      </c>
-      <c r="J82" s="1">
         <v>0.1468888888888889</v>
       </c>
-      <c r="K82" s="1">
+      <c r="I82" s="1">
         <v>1.1203389830508474</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C83">
         <v>1946</v>
@@ -3321,31 +2823,25 @@
       <c r="E83">
         <v>2</v>
       </c>
-      <c r="F83">
-        <v>33.5</v>
-      </c>
-      <c r="G83">
-        <v>17.5</v>
+      <c r="F83" s="1">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="G83" t="s">
+        <v>10</v>
       </c>
       <c r="H83" s="1">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="I83" t="s">
-        <v>12</v>
-      </c>
-      <c r="J83" s="1">
         <v>0.1468888888888889</v>
       </c>
-      <c r="K83" s="1">
+      <c r="I83" s="1">
         <v>0.82625000000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C84">
         <v>1946</v>
@@ -3356,31 +2852,25 @@
       <c r="E84">
         <v>3</v>
       </c>
-      <c r="F84">
-        <v>28.400000000000002</v>
-      </c>
-      <c r="G84">
-        <v>17.2</v>
+      <c r="F84" s="1">
+        <v>0.12444444444444448</v>
+      </c>
+      <c r="G84" t="s">
+        <v>10</v>
       </c>
       <c r="H84" s="1">
-        <v>0.12444444444444448</v>
-      </c>
-      <c r="I84" t="s">
-        <v>12</v>
-      </c>
-      <c r="J84" s="1">
         <v>0.1468888888888889</v>
       </c>
-      <c r="K84" s="1">
+      <c r="I84" s="1">
         <v>1.1803571428571427</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C85">
         <v>1946</v>
@@ -3391,31 +2881,25 @@
       <c r="E85">
         <v>4</v>
       </c>
-      <c r="F85">
-        <v>25.599999999999998</v>
-      </c>
-      <c r="G85">
-        <v>18</v>
+      <c r="F85" s="1">
+        <v>8.4444444444444419E-2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>10</v>
       </c>
       <c r="H85" s="1">
-        <v>8.4444444444444419E-2</v>
-      </c>
-      <c r="I85" t="s">
-        <v>12</v>
-      </c>
-      <c r="J85" s="1">
         <v>0.1468888888888889</v>
       </c>
-      <c r="K85" s="1">
+      <c r="I85" s="1">
         <v>1.7394736842105269</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C86">
         <v>1946</v>
@@ -3426,31 +2910,25 @@
       <c r="E86">
         <v>5</v>
       </c>
-      <c r="F86">
-        <v>35.200000000000003</v>
-      </c>
-      <c r="G86">
-        <v>19.899999999999999</v>
+      <c r="F86" s="1">
+        <v>0.17000000000000004</v>
+      </c>
+      <c r="G86" t="s">
+        <v>10</v>
       </c>
       <c r="H86" s="1">
-        <v>0.17000000000000004</v>
-      </c>
-      <c r="I86" t="s">
-        <v>12</v>
-      </c>
-      <c r="J86" s="1">
         <v>0.1468888888888889</v>
       </c>
-      <c r="K86" s="1">
+      <c r="I86" s="1">
         <v>0.86405228758169927</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C87">
         <v>1590</v>
@@ -3461,31 +2939,25 @@
       <c r="E87">
         <v>1</v>
       </c>
-      <c r="F87">
-        <v>30.599999999999998</v>
-      </c>
-      <c r="G87">
-        <v>19.5</v>
+      <c r="F87" s="1">
+        <v>0.12333333333333331</v>
+      </c>
+      <c r="G87" t="s">
+        <v>7</v>
       </c>
       <c r="H87" s="1">
-        <v>0.12333333333333331</v>
-      </c>
-      <c r="I87" t="s">
-        <v>9</v>
-      </c>
-      <c r="J87" s="1">
         <v>0.10777777777777778</v>
       </c>
-      <c r="K87" s="1">
+      <c r="I87" s="1">
         <v>0.87387387387387405</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C88">
         <v>1590</v>
@@ -3496,31 +2968,25 @@
       <c r="E88">
         <v>2</v>
       </c>
-      <c r="F88">
-        <v>21.599999999999998</v>
-      </c>
-      <c r="G88">
-        <v>14</v>
+      <c r="F88" s="1">
+        <v>8.4444444444444419E-2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>7</v>
       </c>
       <c r="H88" s="1">
-        <v>8.4444444444444419E-2</v>
-      </c>
-      <c r="I88" t="s">
-        <v>9</v>
-      </c>
-      <c r="J88" s="1">
         <v>0.10777777777777778</v>
       </c>
-      <c r="K88" s="1">
+      <c r="I88" s="1">
         <v>1.2763157894736845</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C89">
         <v>1590</v>
@@ -3531,31 +2997,25 @@
       <c r="E89">
         <v>3</v>
       </c>
-      <c r="F89">
-        <v>32.200000000000003</v>
-      </c>
-      <c r="G89">
-        <v>21.6</v>
+      <c r="F89" s="1">
+        <v>0.11777777777777779</v>
+      </c>
+      <c r="G89" t="s">
+        <v>7</v>
       </c>
       <c r="H89" s="1">
-        <v>0.11777777777777779</v>
-      </c>
-      <c r="I89" t="s">
-        <v>9</v>
-      </c>
-      <c r="J89" s="1">
         <v>0.10777777777777778</v>
       </c>
-      <c r="K89" s="1">
+      <c r="I89" s="1">
         <v>0.91509433962264142</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C90">
         <v>1590</v>
@@ -3566,31 +3026,25 @@
       <c r="E90">
         <v>4</v>
       </c>
-      <c r="F90">
-        <v>29.900000000000002</v>
-      </c>
-      <c r="G90">
-        <v>18.8</v>
+      <c r="F90" s="1">
+        <v>0.12333333333333335</v>
+      </c>
+      <c r="G90" t="s">
+        <v>7</v>
       </c>
       <c r="H90" s="1">
-        <v>0.12333333333333335</v>
-      </c>
-      <c r="I90" t="s">
-        <v>9</v>
-      </c>
-      <c r="J90" s="1">
         <v>0.10777777777777778</v>
       </c>
-      <c r="K90" s="1">
+      <c r="I90" s="1">
         <v>0.87387387387387372</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C91">
         <v>1590</v>
@@ -3601,22 +3055,16 @@
       <c r="E91">
         <v>5</v>
       </c>
-      <c r="F91">
-        <v>23.099999999999998</v>
-      </c>
-      <c r="G91">
-        <v>15</v>
+      <c r="F91" s="1">
+        <v>8.9999999999999983E-2</v>
+      </c>
+      <c r="G91" t="s">
+        <v>7</v>
       </c>
       <c r="H91" s="1">
-        <v>8.9999999999999983E-2</v>
-      </c>
-      <c r="I91" t="s">
-        <v>9</v>
-      </c>
-      <c r="J91" s="1">
         <v>0.10777777777777778</v>
       </c>
-      <c r="K91" s="1">
+      <c r="I91" s="1">
         <v>1.1975308641975311</v>
       </c>
     </row>
@@ -3638,28 +3086,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>21</v>
-      </c>
       <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
-      </c>
-      <c r="G1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -3667,7 +3115,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>1946</v>
@@ -3693,7 +3141,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>2641</v>
@@ -3719,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1590</v>
@@ -3745,7 +3193,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2641</v>
@@ -3771,7 +3219,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>1590</v>
@@ -3797,7 +3245,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>1946</v>
@@ -3823,7 +3271,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1946</v>
@@ -3849,7 +3297,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>2641</v>
@@ -3875,7 +3323,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>1590</v>
@@ -3901,7 +3349,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>2641</v>
@@ -3927,7 +3375,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>1590</v>
@@ -3953,7 +3401,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>1946</v>
